--- a/_Out/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="110">
   <si>
     <t>Id</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>club_crushing_blow_1</t>
+  </si>
+  <si>
+    <t>NextID</t>
   </si>
 </sst>
 </file>
@@ -982,12 +985,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="S38" sqref="S38"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1008,13 +1011,14 @@
     <col min="17" max="17" width="26.3984375" customWidth="1"/>
     <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
     <col min="21" max="21" width="16.53125" customWidth="1"/>
-    <col min="22" max="22" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.796875" customWidth="1"/>
     <col min="23" max="23" width="23.1328125" customWidth="1"/>
+    <col min="24" max="24" width="14.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1">
+    <row r="1" spans="1:24" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1084,8 +1088,11 @@
       <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" s="2" customFormat="1">
+      <c r="X1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>24</v>
@@ -1155,8 +1162,11 @@
       <c r="W2" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1">
+      <c r="X2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -1226,8 +1236,11 @@
       <c r="W3" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1">
+      <c r="X3" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -1297,8 +1310,11 @@
       <c r="W4" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" s="2" customFormat="1">
+      <c r="X4" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="2" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -1368,8 +1384,11 @@
       <c r="W5" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" s="2" customFormat="1">
+      <c r="X5" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="2" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -1439,8 +1458,11 @@
       <c r="W6" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" s="3" customFormat="1">
+      <c r="X6" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -1510,8 +1532,11 @@
       <c r="W7" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" s="3" customFormat="1">
+      <c r="X7" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="3" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>60</v>
       </c>
@@ -1581,8 +1606,11 @@
       <c r="W8" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" s="15" customFormat="1">
+      <c r="X8" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="15" customFormat="1">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -1652,8 +1680,9 @@
       <c r="W9" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" s="17" customFormat="1">
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:24" s="17" customFormat="1">
       <c r="A10" s="16" t="s">
         <v>61</v>
       </c>
@@ -1710,7 +1739,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1">
+    <row r="11" spans="1:24" s="17" customFormat="1">
       <c r="A11" s="16" t="s">
         <v>62</v>
       </c>
@@ -1767,7 +1796,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1">
+    <row r="12" spans="1:24" s="17" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>63</v>
       </c>
@@ -1824,7 +1853,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1">
+    <row r="13" spans="1:24" s="17" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>64</v>
       </c>
@@ -1881,7 +1910,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1">
+    <row r="14" spans="1:24" s="17" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>65</v>
       </c>
@@ -1938,7 +1967,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1">
+    <row r="15" spans="1:24" s="17" customFormat="1">
       <c r="A15" s="16" t="s">
         <v>66</v>
       </c>
@@ -1995,7 +2024,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1">
+    <row r="16" spans="1:24" s="17" customFormat="1">
       <c r="A16" s="16" t="s">
         <v>67</v>
       </c>
@@ -3645,7 +3674,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:W8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:X8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Property1!$C$10:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Property1!$C$19:$C$27</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="114">
   <si>
     <t>Id</t>
   </si>
@@ -305,33 +305,6 @@
     <t>SKILL_TeaantProtector_THUMP</t>
   </si>
   <si>
-    <t>DashForwardTrigger</t>
-  </si>
-  <si>
-    <t>DashBackwardTrigger</t>
-  </si>
-  <si>
-    <t>UppercutTrigger</t>
-  </si>
-  <si>
-    <t>PunchTrigger</t>
-  </si>
-  <si>
-    <t>JabTrigger</t>
-  </si>
-  <si>
-    <t>KickTrigger</t>
-  </si>
-  <si>
-    <t>SpecialAttack1Trigger</t>
-  </si>
-  <si>
-    <t>SpecialAttack2Trigger</t>
-  </si>
-  <si>
-    <t>MoveAttack1Trigger</t>
-  </si>
-  <si>
     <t>名字字符串索引</t>
   </si>
   <si>
@@ -369,13 +342,52 @@
   </si>
   <si>
     <t>NextID</t>
+  </si>
+  <si>
+    <t>Punch,Uppercut,Jab</t>
+  </si>
+  <si>
+    <t>SpecialAttack1</t>
+  </si>
+  <si>
+    <t>SKILL_Orc_Slinger_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Dwarf_Warrior_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Wererat_Soldier_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Bristleback_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Clinkz_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_CrystalMaiden_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Ezalor_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Lifestealer_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_TeaantProtector_Idle</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>SpecialAttack2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -411,8 +423,19 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +469,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,6 +644,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,19 +1010,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD36"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="29.06640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.46484375" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.06640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
@@ -1055,7 +1102,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>19</v>
@@ -1067,7 +1114,7 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1">
@@ -1599,10 +1646,10 @@
         <v>32</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>33</v>
@@ -1660,1492 +1707,2018 @@
       </c>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="1:24" s="14" customFormat="1">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:24" s="23" customFormat="1">
+      <c r="A10" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="22">
+        <v>100</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U10" s="22">
+        <v>0</v>
+      </c>
+      <c r="V10" s="22">
+        <v>1</v>
+      </c>
+      <c r="W10" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="23" customFormat="1">
+      <c r="A11" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="22">
+        <v>100</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22">
+        <v>0</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0</v>
+      </c>
+      <c r="V11" s="22">
+        <v>1</v>
+      </c>
+      <c r="W11" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="23" customFormat="1">
+      <c r="A12" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="22">
+        <v>100</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22">
+        <v>0</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0</v>
+      </c>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="22">
+        <v>0</v>
+      </c>
+      <c r="V12" s="22">
+        <v>1</v>
+      </c>
+      <c r="W12" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="23" customFormat="1">
+      <c r="A13" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="23">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="22">
+        <v>100</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22">
+        <v>0</v>
+      </c>
+      <c r="O13" s="22">
+        <v>0</v>
+      </c>
+      <c r="P13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>0</v>
+      </c>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U13" s="22">
+        <v>0</v>
+      </c>
+      <c r="V13" s="22">
+        <v>1</v>
+      </c>
+      <c r="W13" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="23" customFormat="1">
+      <c r="A14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="22">
+        <v>100</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>0</v>
+      </c>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U14" s="22">
+        <v>0</v>
+      </c>
+      <c r="V14" s="22">
+        <v>1</v>
+      </c>
+      <c r="W14" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="23" customFormat="1">
+      <c r="A15" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="23">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="22">
+        <v>100</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22">
+        <v>0</v>
+      </c>
+      <c r="O15" s="22">
+        <v>0</v>
+      </c>
+      <c r="P15" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U15" s="22">
+        <v>0</v>
+      </c>
+      <c r="V15" s="22">
+        <v>1</v>
+      </c>
+      <c r="W15" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="23" customFormat="1">
+      <c r="A16" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="23">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="22">
+        <v>100</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22">
+        <v>0</v>
+      </c>
+      <c r="O16" s="22">
+        <v>0</v>
+      </c>
+      <c r="P16" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>0</v>
+      </c>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U16" s="22">
+        <v>0</v>
+      </c>
+      <c r="V16" s="22">
+        <v>1</v>
+      </c>
+      <c r="W16" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="23" customFormat="1">
+      <c r="A17" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="23">
+        <v>0</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="22">
+        <v>100</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22">
+        <v>0</v>
+      </c>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22">
+        <v>0</v>
+      </c>
+      <c r="O17" s="22">
+        <v>0</v>
+      </c>
+      <c r="P17" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>0</v>
+      </c>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U17" s="22">
+        <v>0</v>
+      </c>
+      <c r="V17" s="22">
+        <v>1</v>
+      </c>
+      <c r="W17" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="23" customFormat="1">
+      <c r="A18" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="23">
+        <v>0</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="22">
+        <v>100</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="22">
+        <v>120</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22">
+        <v>1</v>
+      </c>
+      <c r="O18" s="22">
+        <v>0</v>
+      </c>
+      <c r="P18" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>0</v>
+      </c>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="22">
+        <v>0</v>
+      </c>
+      <c r="V18" s="22">
+        <v>1</v>
+      </c>
+      <c r="W18" s="22">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="14" customFormat="1">
+      <c r="A19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="B19" s="14">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="13">
+        <v>100</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0</v>
+      </c>
+      <c r="V19" s="13">
+        <v>1</v>
+      </c>
+      <c r="W19" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="14" customFormat="1">
+      <c r="A20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="13">
+        <v>100</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U20" s="13">
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <v>1</v>
+      </c>
+      <c r="W20" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="14" customFormat="1">
+      <c r="A21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="13">
+        <v>100</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>0</v>
+      </c>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U21" s="13">
+        <v>0</v>
+      </c>
+      <c r="V21" s="13">
+        <v>1</v>
+      </c>
+      <c r="W21" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="14" customFormat="1">
+      <c r="A22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="13">
+        <v>100</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0</v>
+      </c>
+      <c r="V22" s="13">
+        <v>1</v>
+      </c>
+      <c r="W22" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="14" customFormat="1">
+      <c r="A23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="13">
+        <v>100</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>1</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="14" customFormat="1">
+      <c r="A24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="13">
+        <v>100</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0</v>
+      </c>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0</v>
+      </c>
+      <c r="V24" s="13">
+        <v>1</v>
+      </c>
+      <c r="W24" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="14" customFormat="1">
+      <c r="A25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="14">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="13">
+        <v>100</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="13">
+        <v>1</v>
+      </c>
+      <c r="W25" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="14" customFormat="1">
+      <c r="A26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="13">
+        <v>100</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
+      <c r="O26" s="13">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0</v>
+      </c>
+      <c r="V26" s="13">
+        <v>1</v>
+      </c>
+      <c r="W26" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="14" customFormat="1">
+      <c r="A27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="13">
+        <v>100</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="13">
+        <v>120</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13">
+        <v>1</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <v>1</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="17" customFormat="1">
+      <c r="A28" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="18">
+        <v>100</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="18">
+        <v>120</v>
+      </c>
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
+        <v>1</v>
+      </c>
+      <c r="O28" s="17">
+        <v>0</v>
+      </c>
+      <c r="P28" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>0</v>
+      </c>
+      <c r="S28" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="13">
+      <c r="T28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U28" s="17">
+        <v>0</v>
+      </c>
+      <c r="V28" s="17">
+        <v>1</v>
+      </c>
+      <c r="W28" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="17" customFormat="1">
+      <c r="A29" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="18">
         <v>100</v>
       </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U10" s="13">
-        <v>0</v>
-      </c>
-      <c r="V10" s="13">
-        <v>1</v>
-      </c>
-      <c r="W10" s="13">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="14" customFormat="1">
-      <c r="A11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="18">
+        <v>120</v>
+      </c>
+      <c r="K29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29" s="18">
+        <v>1</v>
+      </c>
+      <c r="O29" s="17">
+        <v>0</v>
+      </c>
+      <c r="P29" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>0</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U29" s="17">
+        <v>0</v>
+      </c>
+      <c r="V29" s="17">
+        <v>1</v>
+      </c>
+      <c r="W29" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="17" customFormat="1">
+      <c r="A30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="18">
         <v>100</v>
       </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>0</v>
-      </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U11" s="13">
-        <v>0</v>
-      </c>
-      <c r="V11" s="13">
-        <v>1</v>
-      </c>
-      <c r="W11" s="13">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="14" customFormat="1">
-      <c r="A12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="14">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="18">
+        <v>120</v>
+      </c>
+      <c r="K30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30" s="18">
+        <v>1</v>
+      </c>
+      <c r="O30" s="17">
+        <v>0</v>
+      </c>
+      <c r="P30" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>0</v>
+      </c>
+      <c r="S30" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U30" s="17">
+        <v>0</v>
+      </c>
+      <c r="V30" s="17">
+        <v>1</v>
+      </c>
+      <c r="W30" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="17" customFormat="1">
+      <c r="A31" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="G31" s="18">
         <v>100</v>
       </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>0</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
-        <v>1</v>
-      </c>
-      <c r="W12" s="13">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="14" customFormat="1">
-      <c r="A13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="J31" s="18">
+        <v>120</v>
+      </c>
+      <c r="K31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31" s="18">
+        <v>1</v>
+      </c>
+      <c r="O31" s="17">
+        <v>0</v>
+      </c>
+      <c r="P31" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>0</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U31" s="17">
+        <v>0</v>
+      </c>
+      <c r="V31" s="17">
+        <v>1</v>
+      </c>
+      <c r="W31" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="17" customFormat="1">
+      <c r="A32" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="18">
         <v>100</v>
       </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U13" s="13">
-        <v>0</v>
-      </c>
-      <c r="V13" s="13">
-        <v>1</v>
-      </c>
-      <c r="W13" s="13">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="14" customFormat="1">
-      <c r="A14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="18">
+        <v>120</v>
+      </c>
+      <c r="K32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32" s="18">
+        <v>1</v>
+      </c>
+      <c r="O32" s="17">
+        <v>0</v>
+      </c>
+      <c r="P32" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>0</v>
+      </c>
+      <c r="T32" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="U32" s="17">
+        <v>0</v>
+      </c>
+      <c r="V32" s="17">
+        <v>1</v>
+      </c>
+      <c r="W32" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="17" customFormat="1">
+      <c r="A33" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="18">
         <v>100</v>
       </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13">
-        <v>0</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U14" s="13">
-        <v>0</v>
-      </c>
-      <c r="V14" s="13">
-        <v>1</v>
-      </c>
-      <c r="W14" s="13">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="14" customFormat="1">
-      <c r="A15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="18">
+        <v>120</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0</v>
+      </c>
+      <c r="N33" s="18">
+        <v>1</v>
+      </c>
+      <c r="O33" s="17">
+        <v>0</v>
+      </c>
+      <c r="P33" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>0</v>
+      </c>
+      <c r="T33" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U33" s="17">
+        <v>0</v>
+      </c>
+      <c r="V33" s="17">
+        <v>1</v>
+      </c>
+      <c r="W33" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="17" customFormat="1">
+      <c r="A34" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="18">
         <v>100</v>
       </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13">
-        <v>0</v>
-      </c>
-      <c r="O15" s="13">
-        <v>0</v>
-      </c>
-      <c r="P15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>0</v>
-      </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U15" s="13">
-        <v>0</v>
-      </c>
-      <c r="V15" s="13">
-        <v>1</v>
-      </c>
-      <c r="W15" s="13">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="14" customFormat="1">
-      <c r="A16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="14">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="18">
+        <v>120</v>
+      </c>
+      <c r="K34" s="18">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <v>1</v>
+      </c>
+      <c r="O34" s="17">
+        <v>0</v>
+      </c>
+      <c r="P34" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>0</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U34" s="17">
+        <v>0</v>
+      </c>
+      <c r="V34" s="17">
+        <v>1</v>
+      </c>
+      <c r="W34" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="17" customFormat="1">
+      <c r="A35" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="18">
+        <v>100</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="18">
+        <v>120</v>
+      </c>
+      <c r="K35" s="18">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
+        <v>1</v>
+      </c>
+      <c r="O35" s="17">
+        <v>0</v>
+      </c>
+      <c r="P35" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>0</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U35" s="17">
+        <v>0</v>
+      </c>
+      <c r="V35" s="17">
+        <v>1</v>
+      </c>
+      <c r="W35" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="17" customFormat="1">
+      <c r="A36" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="18">
+        <v>100</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="18">
+        <v>120</v>
+      </c>
+      <c r="K36" s="18">
+        <v>0</v>
+      </c>
+      <c r="N36" s="18">
+        <v>1</v>
+      </c>
+      <c r="O36" s="17">
+        <v>0</v>
+      </c>
+      <c r="P36" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>0</v>
+      </c>
+      <c r="T36" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U36" s="17">
+        <v>0</v>
+      </c>
+      <c r="V36" s="17">
+        <v>1</v>
+      </c>
+      <c r="W36" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
+      <c r="A37" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="20">
+        <v>0</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="F37" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="21">
+        <v>100</v>
+      </c>
+      <c r="H37" s="21">
+        <v>0</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="21">
+        <v>120</v>
+      </c>
+      <c r="K37" s="21">
+        <v>0</v>
+      </c>
+      <c r="N37" s="21">
+        <v>1</v>
+      </c>
+      <c r="O37" s="20">
+        <v>0</v>
+      </c>
+      <c r="P37" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="21">
+        <v>0</v>
+      </c>
+      <c r="S37" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="T37" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U37" s="20">
+        <v>0</v>
+      </c>
+      <c r="V37" s="20">
+        <v>1</v>
+      </c>
+      <c r="W37" s="21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
+      <c r="A38" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="20">
+        <v>0</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="F38" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="21">
         <v>100</v>
       </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13">
-        <v>0</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13">
-        <v>0</v>
-      </c>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U16" s="13">
-        <v>0</v>
-      </c>
-      <c r="V16" s="13">
-        <v>1</v>
-      </c>
-      <c r="W16" s="13">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" s="14" customFormat="1">
-      <c r="A17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="14">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="H38" s="21">
+        <v>0</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" s="21">
+        <v>120</v>
+      </c>
+      <c r="K38" s="21">
+        <v>0</v>
+      </c>
+      <c r="N38" s="21">
+        <v>1</v>
+      </c>
+      <c r="O38" s="20">
+        <v>0</v>
+      </c>
+      <c r="P38" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="21">
+        <v>0</v>
+      </c>
+      <c r="S38" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T38" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U38" s="20">
+        <v>0</v>
+      </c>
+      <c r="V38" s="20">
+        <v>1</v>
+      </c>
+      <c r="W38" s="21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
+      <c r="A39" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="20">
+        <v>0</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="F39" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="21">
         <v>100</v>
       </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13">
-        <v>0</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13">
-        <v>0</v>
-      </c>
-      <c r="O17" s="13">
-        <v>0</v>
-      </c>
-      <c r="P17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>0</v>
-      </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U17" s="13">
-        <v>0</v>
-      </c>
-      <c r="V17" s="13">
-        <v>1</v>
-      </c>
-      <c r="W17" s="13">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" s="14" customFormat="1">
-      <c r="A18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="14">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="H39" s="21">
+        <v>0</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="21">
+        <v>120</v>
+      </c>
+      <c r="K39" s="21">
+        <v>0</v>
+      </c>
+      <c r="N39" s="21">
+        <v>1</v>
+      </c>
+      <c r="O39" s="20">
+        <v>0</v>
+      </c>
+      <c r="P39" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="21">
+        <v>0</v>
+      </c>
+      <c r="S39" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="T39" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U39" s="20">
+        <v>0</v>
+      </c>
+      <c r="V39" s="20">
+        <v>1</v>
+      </c>
+      <c r="W39" s="21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
+      <c r="A40" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="20">
+        <v>0</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="F40" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="21">
         <v>100</v>
       </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13" t="s">
+      <c r="H40" s="21">
+        <v>0</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" s="21">
+        <v>120</v>
+      </c>
+      <c r="K40" s="21">
+        <v>0</v>
+      </c>
+      <c r="N40" s="21">
+        <v>1</v>
+      </c>
+      <c r="O40" s="20">
+        <v>0</v>
+      </c>
+      <c r="P40" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="21">
+        <v>0</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U40" s="20">
+        <v>0</v>
+      </c>
+      <c r="V40" s="20">
+        <v>1</v>
+      </c>
+      <c r="W40" s="21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
+      <c r="A41" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="20">
+        <v>0</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="F41" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="21">
         <v>100</v>
       </c>
-      <c r="J18" s="13">
+      <c r="H41" s="21">
+        <v>0</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="21">
         <v>120</v>
       </c>
-      <c r="K18" s="13">
-        <v>0</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13">
-        <v>1</v>
-      </c>
-      <c r="O18" s="13">
-        <v>0</v>
-      </c>
-      <c r="P18" s="13">
+      <c r="K41" s="21">
+        <v>0</v>
+      </c>
+      <c r="N41" s="21">
+        <v>1</v>
+      </c>
+      <c r="O41" s="20">
+        <v>0</v>
+      </c>
+      <c r="P41" s="21">
         <v>2</v>
       </c>
-      <c r="Q18" s="13">
-        <v>0</v>
-      </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U18" s="13">
-        <v>0</v>
-      </c>
-      <c r="V18" s="13">
-        <v>1</v>
-      </c>
-      <c r="W18" s="13">
+      <c r="Q41" s="21">
+        <v>0</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U41" s="20">
+        <v>0</v>
+      </c>
+      <c r="V41" s="20">
+        <v>1</v>
+      </c>
+      <c r="W41" s="21">
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="17" customFormat="1">
-      <c r="A19" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="17">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="18">
+    <row r="42" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
+      <c r="A42" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="20">
+        <v>0</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="F42" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="21">
         <v>100</v>
       </c>
-      <c r="H19" s="18">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18" t="s">
+      <c r="H42" s="21">
+        <v>0</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="21">
+        <v>120</v>
+      </c>
+      <c r="K42" s="21">
+        <v>0</v>
+      </c>
+      <c r="N42" s="21">
+        <v>1</v>
+      </c>
+      <c r="O42" s="20">
+        <v>0</v>
+      </c>
+      <c r="P42" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="21">
+        <v>0</v>
+      </c>
+      <c r="T42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U42" s="20">
+        <v>0</v>
+      </c>
+      <c r="V42" s="20">
+        <v>1</v>
+      </c>
+      <c r="W42" s="21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
+      <c r="A43" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="20">
+        <v>0</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="F43" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="21">
         <v>100</v>
       </c>
-      <c r="J19" s="18">
+      <c r="H43" s="21">
+        <v>0</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" s="21">
         <v>120</v>
       </c>
-      <c r="K19" s="18">
-        <v>0</v>
-      </c>
-      <c r="N19" s="18">
-        <v>1</v>
-      </c>
-      <c r="O19" s="17">
-        <v>0</v>
-      </c>
-      <c r="P19" s="18">
+      <c r="K43" s="21">
+        <v>0</v>
+      </c>
+      <c r="N43" s="21">
+        <v>1</v>
+      </c>
+      <c r="O43" s="20">
+        <v>0</v>
+      </c>
+      <c r="P43" s="21">
         <v>2</v>
       </c>
-      <c r="Q19" s="18">
-        <v>0</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U19" s="17">
-        <v>0</v>
-      </c>
-      <c r="V19" s="17">
-        <v>1</v>
-      </c>
-      <c r="W19" s="18">
+      <c r="Q43" s="21">
+        <v>0</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U43" s="20">
+        <v>0</v>
+      </c>
+      <c r="V43" s="20">
+        <v>1</v>
+      </c>
+      <c r="W43" s="21">
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="17" customFormat="1">
-      <c r="A20" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="17">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="18">
+    <row r="44" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
+      <c r="A44" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="20">
+        <v>0</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="F44" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="21">
         <v>100</v>
       </c>
-      <c r="H20" s="18">
-        <v>0</v>
-      </c>
-      <c r="I20" s="18" t="s">
+      <c r="H44" s="21">
+        <v>0</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="21">
+        <v>120</v>
+      </c>
+      <c r="K44" s="21">
+        <v>0</v>
+      </c>
+      <c r="N44" s="21">
+        <v>1</v>
+      </c>
+      <c r="O44" s="20">
+        <v>0</v>
+      </c>
+      <c r="P44" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="21">
+        <v>0</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U44" s="20">
+        <v>0</v>
+      </c>
+      <c r="V44" s="20">
+        <v>1</v>
+      </c>
+      <c r="W44" s="21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
+      <c r="A45" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="20">
+        <v>0</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="F45" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="21">
         <v>100</v>
       </c>
-      <c r="J20" s="18">
+      <c r="H45" s="21">
+        <v>0</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="21">
         <v>120</v>
       </c>
-      <c r="K20" s="18">
-        <v>0</v>
-      </c>
-      <c r="N20" s="18">
-        <v>1</v>
-      </c>
-      <c r="O20" s="17">
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
+      <c r="K45" s="21">
+        <v>0</v>
+      </c>
+      <c r="N45" s="21">
+        <v>1</v>
+      </c>
+      <c r="O45" s="20">
+        <v>0</v>
+      </c>
+      <c r="P45" s="21">
         <v>2</v>
       </c>
-      <c r="Q20" s="18">
-        <v>0</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U20" s="17">
-        <v>0</v>
-      </c>
-      <c r="V20" s="17">
-        <v>1</v>
-      </c>
-      <c r="W20" s="18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" s="17" customFormat="1">
-      <c r="A21" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="17">
-        <v>0</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="18">
-        <v>100</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="18">
-        <v>120</v>
-      </c>
-      <c r="K21" s="18">
-        <v>0</v>
-      </c>
-      <c r="N21" s="18">
-        <v>1</v>
-      </c>
-      <c r="O21" s="17">
-        <v>0</v>
-      </c>
-      <c r="P21" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="18">
-        <v>0</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U21" s="17">
-        <v>0</v>
-      </c>
-      <c r="V21" s="17">
-        <v>1</v>
-      </c>
-      <c r="W21" s="18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="17" customFormat="1">
-      <c r="A22" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="17">
-        <v>0</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="18">
-        <v>100</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="18">
-        <v>120</v>
-      </c>
-      <c r="K22" s="18">
-        <v>0</v>
-      </c>
-      <c r="N22" s="18">
-        <v>1</v>
-      </c>
-      <c r="O22" s="17">
-        <v>0</v>
-      </c>
-      <c r="P22" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="18">
-        <v>0</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U22" s="17">
-        <v>0</v>
-      </c>
-      <c r="V22" s="17">
-        <v>1</v>
-      </c>
-      <c r="W22" s="18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" s="17" customFormat="1">
-      <c r="A23" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="17">
-        <v>0</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="Q45" s="21">
+        <v>0</v>
+      </c>
+      <c r="T45" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="18">
-        <v>100</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="18">
-        <v>120</v>
-      </c>
-      <c r="K23" s="18">
-        <v>0</v>
-      </c>
-      <c r="N23" s="18">
-        <v>1</v>
-      </c>
-      <c r="O23" s="17">
-        <v>0</v>
-      </c>
-      <c r="P23" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="18">
-        <v>0</v>
-      </c>
-      <c r="T23" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U23" s="17">
-        <v>0</v>
-      </c>
-      <c r="V23" s="17">
-        <v>1</v>
-      </c>
-      <c r="W23" s="18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" s="17" customFormat="1">
-      <c r="A24" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="17">
-        <v>0</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="18">
-        <v>100</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="18">
-        <v>120</v>
-      </c>
-      <c r="K24" s="18">
-        <v>0</v>
-      </c>
-      <c r="N24" s="18">
-        <v>1</v>
-      </c>
-      <c r="O24" s="17">
-        <v>0</v>
-      </c>
-      <c r="P24" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="18">
-        <v>0</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U24" s="17">
-        <v>0</v>
-      </c>
-      <c r="V24" s="17">
-        <v>1</v>
-      </c>
-      <c r="W24" s="18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" s="17" customFormat="1">
-      <c r="A25" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="17">
-        <v>0</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="18">
-        <v>100</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="18">
-        <v>120</v>
-      </c>
-      <c r="K25" s="18">
-        <v>0</v>
-      </c>
-      <c r="N25" s="18">
-        <v>1</v>
-      </c>
-      <c r="O25" s="17">
-        <v>0</v>
-      </c>
-      <c r="P25" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="18">
-        <v>0</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U25" s="17">
-        <v>0</v>
-      </c>
-      <c r="V25" s="17">
-        <v>1</v>
-      </c>
-      <c r="W25" s="18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" s="17" customFormat="1">
-      <c r="A26" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="17">
-        <v>0</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="18">
-        <v>100</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" s="18">
-        <v>120</v>
-      </c>
-      <c r="K26" s="18">
-        <v>0</v>
-      </c>
-      <c r="N26" s="18">
-        <v>1</v>
-      </c>
-      <c r="O26" s="17">
-        <v>0</v>
-      </c>
-      <c r="P26" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="18">
-        <v>0</v>
-      </c>
-      <c r="T26" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U26" s="17">
-        <v>0</v>
-      </c>
-      <c r="V26" s="17">
-        <v>1</v>
-      </c>
-      <c r="W26" s="18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" s="17" customFormat="1">
-      <c r="A27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="17">
-        <v>0</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="18">
-        <v>100</v>
-      </c>
-      <c r="H27" s="18">
-        <v>0</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="18">
-        <v>120</v>
-      </c>
-      <c r="K27" s="18">
-        <v>0</v>
-      </c>
-      <c r="N27" s="18">
-        <v>1</v>
-      </c>
-      <c r="O27" s="17">
-        <v>0</v>
-      </c>
-      <c r="P27" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="18">
-        <v>0</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U27" s="17">
-        <v>0</v>
-      </c>
-      <c r="V27" s="17">
-        <v>1</v>
-      </c>
-      <c r="W27" s="18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" s="20" customFormat="1">
-      <c r="A28" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="20">
-        <v>0</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="21">
-        <v>100</v>
-      </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="21">
-        <v>120</v>
-      </c>
-      <c r="K28" s="21">
-        <v>0</v>
-      </c>
-      <c r="N28" s="21">
-        <v>1</v>
-      </c>
-      <c r="O28" s="20">
-        <v>0</v>
-      </c>
-      <c r="P28" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="21">
-        <v>0</v>
-      </c>
-      <c r="S28" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="T28" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U28" s="20">
-        <v>0</v>
-      </c>
-      <c r="V28" s="20">
-        <v>1</v>
-      </c>
-      <c r="W28" s="21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" s="20" customFormat="1">
-      <c r="A29" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="20">
-        <v>0</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="21">
-        <v>100</v>
-      </c>
-      <c r="H29" s="21">
-        <v>0</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="21">
-        <v>120</v>
-      </c>
-      <c r="K29" s="21">
-        <v>0</v>
-      </c>
-      <c r="N29" s="21">
-        <v>1</v>
-      </c>
-      <c r="O29" s="20">
-        <v>0</v>
-      </c>
-      <c r="P29" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="21">
-        <v>0</v>
-      </c>
-      <c r="S29" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="T29" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U29" s="20">
-        <v>0</v>
-      </c>
-      <c r="V29" s="20">
-        <v>1</v>
-      </c>
-      <c r="W29" s="21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" s="20" customFormat="1">
-      <c r="A30" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="20">
-        <v>0</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="21">
-        <v>100</v>
-      </c>
-      <c r="H30" s="21">
-        <v>0</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="21">
-        <v>120</v>
-      </c>
-      <c r="K30" s="21">
-        <v>0</v>
-      </c>
-      <c r="N30" s="21">
-        <v>1</v>
-      </c>
-      <c r="O30" s="20">
-        <v>0</v>
-      </c>
-      <c r="P30" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="21">
-        <v>0</v>
-      </c>
-      <c r="S30" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="T30" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U30" s="20">
-        <v>0</v>
-      </c>
-      <c r="V30" s="20">
-        <v>1</v>
-      </c>
-      <c r="W30" s="21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="20" customFormat="1">
-      <c r="A31" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="20">
-        <v>0</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="21">
-        <v>100</v>
-      </c>
-      <c r="H31" s="21">
-        <v>0</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="21">
-        <v>120</v>
-      </c>
-      <c r="K31" s="21">
-        <v>0</v>
-      </c>
-      <c r="N31" s="21">
-        <v>1</v>
-      </c>
-      <c r="O31" s="20">
-        <v>0</v>
-      </c>
-      <c r="P31" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="21">
-        <v>0</v>
-      </c>
-      <c r="T31" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U31" s="20">
-        <v>0</v>
-      </c>
-      <c r="V31" s="20">
-        <v>1</v>
-      </c>
-      <c r="W31" s="21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" s="20" customFormat="1">
-      <c r="A32" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="20">
-        <v>0</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="21">
-        <v>100</v>
-      </c>
-      <c r="H32" s="21">
-        <v>0</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="21">
-        <v>120</v>
-      </c>
-      <c r="K32" s="21">
-        <v>0</v>
-      </c>
-      <c r="N32" s="21">
-        <v>1</v>
-      </c>
-      <c r="O32" s="20">
-        <v>0</v>
-      </c>
-      <c r="P32" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="21">
-        <v>0</v>
-      </c>
-      <c r="T32" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U32" s="20">
-        <v>0</v>
-      </c>
-      <c r="V32" s="20">
-        <v>1</v>
-      </c>
-      <c r="W32" s="21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" s="20" customFormat="1">
-      <c r="A33" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="20">
-        <v>0</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="21">
-        <v>100</v>
-      </c>
-      <c r="H33" s="21">
-        <v>0</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="21">
-        <v>120</v>
-      </c>
-      <c r="K33" s="21">
-        <v>0</v>
-      </c>
-      <c r="N33" s="21">
-        <v>1</v>
-      </c>
-      <c r="O33" s="20">
-        <v>0</v>
-      </c>
-      <c r="P33" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="21">
-        <v>0</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U33" s="20">
-        <v>0</v>
-      </c>
-      <c r="V33" s="20">
-        <v>1</v>
-      </c>
-      <c r="W33" s="21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" s="20" customFormat="1">
-      <c r="A34" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="20">
-        <v>0</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="21">
-        <v>100</v>
-      </c>
-      <c r="H34" s="21">
-        <v>0</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34" s="21">
-        <v>120</v>
-      </c>
-      <c r="K34" s="21">
-        <v>0</v>
-      </c>
-      <c r="N34" s="21">
-        <v>1</v>
-      </c>
-      <c r="O34" s="20">
-        <v>0</v>
-      </c>
-      <c r="P34" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="21">
-        <v>0</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U34" s="20">
-        <v>0</v>
-      </c>
-      <c r="V34" s="20">
-        <v>1</v>
-      </c>
-      <c r="W34" s="21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" s="20" customFormat="1">
-      <c r="A35" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="20">
-        <v>0</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="21">
-        <v>100</v>
-      </c>
-      <c r="H35" s="21">
-        <v>0</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="21">
-        <v>120</v>
-      </c>
-      <c r="K35" s="21">
-        <v>0</v>
-      </c>
-      <c r="N35" s="21">
-        <v>1</v>
-      </c>
-      <c r="O35" s="20">
-        <v>0</v>
-      </c>
-      <c r="P35" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="21">
-        <v>0</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U35" s="20">
-        <v>0</v>
-      </c>
-      <c r="V35" s="20">
-        <v>1</v>
-      </c>
-      <c r="W35" s="21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" s="20" customFormat="1">
-      <c r="A36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="20">
-        <v>0</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" s="21">
-        <v>100</v>
-      </c>
-      <c r="H36" s="21">
-        <v>0</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J36" s="21">
-        <v>120</v>
-      </c>
-      <c r="K36" s="21">
-        <v>0</v>
-      </c>
-      <c r="N36" s="21">
-        <v>1</v>
-      </c>
-      <c r="O36" s="20">
-        <v>0</v>
-      </c>
-      <c r="P36" s="21">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="21">
-        <v>0</v>
-      </c>
-      <c r="T36" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="U36" s="20">
-        <v>0</v>
-      </c>
-      <c r="V36" s="20">
-        <v>1</v>
-      </c>
-      <c r="W36" s="21">
+      <c r="U45" s="20">
+        <v>0</v>
+      </c>
+      <c r="V45" s="20">
+        <v>1</v>
+      </c>
+      <c r="W45" s="21">
         <v>0.6</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Property1!$C$19:$C$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Property1!$C$20:$C$28</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="115">
   <si>
     <t>Id</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>SpecialAttack2</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
@@ -1010,12 +1013,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19:C27"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1563,210 +1566,227 @@
     </row>
     <row r="8" spans="1:24" s="3" customFormat="1">
       <c r="A8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="3" customFormat="1">
+      <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="12" customFormat="1">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="12" customFormat="1">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="11"/>
-    </row>
-    <row r="10" spans="1:24" s="23" customFormat="1">
-      <c r="A10" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="23">
-        <v>0</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="22">
-        <v>100</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>0</v>
-      </c>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="U10" s="22">
-        <v>0</v>
-      </c>
-      <c r="V10" s="22">
-        <v>1</v>
-      </c>
-      <c r="W10" s="22">
-        <v>0.8</v>
-      </c>
+      <c r="X10" s="11"/>
     </row>
     <row r="11" spans="1:24" s="23" customFormat="1">
       <c r="A11" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="23">
         <v>0</v>
@@ -1775,7 +1795,7 @@
         <v>112</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
@@ -1823,7 +1843,7 @@
     </row>
     <row r="12" spans="1:24" s="23" customFormat="1">
       <c r="A12" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="23">
         <v>0</v>
@@ -1832,7 +1852,7 @@
         <v>112</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
@@ -1880,7 +1900,7 @@
     </row>
     <row r="13" spans="1:24" s="23" customFormat="1">
       <c r="A13" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="23">
         <v>0</v>
@@ -1889,7 +1909,7 @@
         <v>112</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
@@ -1937,7 +1957,7 @@
     </row>
     <row r="14" spans="1:24" s="23" customFormat="1">
       <c r="A14" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="23">
         <v>0</v>
@@ -1946,7 +1966,7 @@
         <v>112</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
@@ -1994,7 +2014,7 @@
     </row>
     <row r="15" spans="1:24" s="23" customFormat="1">
       <c r="A15" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="23">
         <v>0</v>
@@ -2003,7 +2023,7 @@
         <v>112</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
@@ -2051,7 +2071,7 @@
     </row>
     <row r="16" spans="1:24" s="23" customFormat="1">
       <c r="A16" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="23">
         <v>0</v>
@@ -2060,7 +2080,7 @@
         <v>112</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
@@ -2108,7 +2128,7 @@
     </row>
     <row r="17" spans="1:23" s="23" customFormat="1">
       <c r="A17" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="23">
         <v>0</v>
@@ -2117,7 +2137,7 @@
         <v>112</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
@@ -2165,7 +2185,7 @@
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1">
       <c r="A18" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="23">
         <v>0</v>
@@ -2174,7 +2194,7 @@
         <v>112</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
@@ -2186,25 +2206,21 @@
       <c r="H18" s="22">
         <v>0</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="22">
-        <v>120</v>
-      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="22">
         <v>0</v>
       </c>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="22">
         <v>0</v>
       </c>
       <c r="P18" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="22">
         <v>0</v>
@@ -2221,69 +2237,73 @@
         <v>1</v>
       </c>
       <c r="W18" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="23" customFormat="1">
+      <c r="A19" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="23">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="22">
+        <v>100</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="22">
+        <v>120</v>
+      </c>
+      <c r="K19" s="22">
+        <v>0</v>
+      </c>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22">
+        <v>1</v>
+      </c>
+      <c r="O19" s="22">
+        <v>0</v>
+      </c>
+      <c r="P19" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>0</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U19" s="22">
+        <v>0</v>
+      </c>
+      <c r="V19" s="22">
+        <v>1</v>
+      </c>
+      <c r="W19" s="22">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" s="14" customFormat="1">
-      <c r="A19" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="14">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="13">
-        <v>100</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13">
-        <v>0</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13">
-        <v>0</v>
-      </c>
-      <c r="O19" s="13">
-        <v>0</v>
-      </c>
-      <c r="P19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>0</v>
-      </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="U19" s="13">
-        <v>0</v>
-      </c>
-      <c r="V19" s="13">
-        <v>1</v>
-      </c>
-      <c r="W19" s="13">
-        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="14" customFormat="1">
       <c r="A20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="14">
         <v>0</v>
@@ -2292,7 +2312,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
@@ -2340,7 +2360,7 @@
     </row>
     <row r="21" spans="1:23" s="14" customFormat="1">
       <c r="A21" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="14">
         <v>0</v>
@@ -2349,7 +2369,7 @@
         <v>101</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
@@ -2397,7 +2417,7 @@
     </row>
     <row r="22" spans="1:23" s="14" customFormat="1">
       <c r="A22" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="14">
         <v>0</v>
@@ -2406,7 +2426,7 @@
         <v>101</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
@@ -2454,7 +2474,7 @@
     </row>
     <row r="23" spans="1:23" s="14" customFormat="1">
       <c r="A23" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
@@ -2463,7 +2483,7 @@
         <v>101</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
@@ -2511,7 +2531,7 @@
     </row>
     <row r="24" spans="1:23" s="14" customFormat="1">
       <c r="A24" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="14">
         <v>0</v>
@@ -2520,7 +2540,7 @@
         <v>101</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
@@ -2568,7 +2588,7 @@
     </row>
     <row r="25" spans="1:23" s="14" customFormat="1">
       <c r="A25" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="14">
         <v>0</v>
@@ -2577,7 +2597,7 @@
         <v>101</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
@@ -2625,7 +2645,7 @@
     </row>
     <row r="26" spans="1:23" s="14" customFormat="1">
       <c r="A26" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="14">
         <v>0</v>
@@ -2634,7 +2654,7 @@
         <v>101</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
@@ -2682,7 +2702,7 @@
     </row>
     <row r="27" spans="1:23" s="14" customFormat="1">
       <c r="A27" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="14">
         <v>0</v>
@@ -2691,7 +2711,7 @@
         <v>101</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
@@ -2703,25 +2723,21 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J27" s="13">
-        <v>120</v>
-      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="13">
         <v>0</v>
       </c>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="13">
         <v>0</v>
       </c>
       <c r="P27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="13">
         <v>0</v>
@@ -2738,68 +2754,73 @@
         <v>1</v>
       </c>
       <c r="W27" s="13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" s="17" customFormat="1">
-      <c r="A28" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="17">
-        <v>0</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="18" t="s">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="14" customFormat="1">
+      <c r="A28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="13">
         <v>100</v>
       </c>
-      <c r="H28" s="18">
-        <v>0</v>
-      </c>
-      <c r="I28" s="18" t="s">
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="13">
         <v>120</v>
       </c>
-      <c r="K28" s="18">
-        <v>0</v>
-      </c>
-      <c r="N28" s="18">
-        <v>1</v>
-      </c>
-      <c r="O28" s="17">
-        <v>0</v>
-      </c>
-      <c r="P28" s="18">
+      <c r="K28" s="13">
+        <v>0</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13">
+        <v>1</v>
+      </c>
+      <c r="O28" s="13">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
         <v>2</v>
       </c>
-      <c r="Q28" s="18">
-        <v>0</v>
-      </c>
-      <c r="S28" s="17" t="s">
-        <v>99</v>
-      </c>
+      <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
       <c r="T28" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="U28" s="17">
-        <v>0</v>
-      </c>
-      <c r="V28" s="17">
-        <v>1</v>
-      </c>
-      <c r="W28" s="18">
+      <c r="U28" s="13">
+        <v>0</v>
+      </c>
+      <c r="V28" s="13">
+        <v>1</v>
+      </c>
+      <c r="W28" s="13">
         <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="17" customFormat="1">
       <c r="A29" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -2838,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="T29" s="13" t="s">
         <v>92</v>
@@ -2855,7 +2876,7 @@
     </row>
     <row r="30" spans="1:23" s="17" customFormat="1">
       <c r="A30" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="17">
         <v>0</v>
@@ -2894,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T30" s="13" t="s">
         <v>92</v>
@@ -2911,7 +2932,7 @@
     </row>
     <row r="31" spans="1:23" s="17" customFormat="1">
       <c r="A31" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="17">
         <v>0</v>
@@ -2949,6 +2970,9 @@
       <c r="Q31" s="18">
         <v>0</v>
       </c>
+      <c r="S31" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="T31" s="13" t="s">
         <v>92</v>
       </c>
@@ -2964,7 +2988,7 @@
     </row>
     <row r="32" spans="1:23" s="17" customFormat="1">
       <c r="A32" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="17">
         <v>0</v>
@@ -3017,7 +3041,7 @@
     </row>
     <row r="33" spans="1:23" s="17" customFormat="1">
       <c r="A33" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -3070,7 +3094,7 @@
     </row>
     <row r="34" spans="1:23" s="17" customFormat="1">
       <c r="A34" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="17">
         <v>0</v>
@@ -3123,7 +3147,7 @@
     </row>
     <row r="35" spans="1:23" s="17" customFormat="1">
       <c r="A35" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="17">
         <v>0</v>
@@ -3176,7 +3200,7 @@
     </row>
     <row r="36" spans="1:23" s="17" customFormat="1">
       <c r="A36" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="17">
         <v>0</v>
@@ -3227,66 +3251,62 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
-      <c r="A37" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="20">
-        <v>0</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="27"/>
-      <c r="F37" s="21" t="s">
+    <row r="37" spans="1:23" s="17" customFormat="1">
+      <c r="A37" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="18">
         <v>100</v>
       </c>
-      <c r="H37" s="21">
-        <v>0</v>
-      </c>
-      <c r="I37" s="21" t="s">
+      <c r="H37" s="18">
+        <v>0</v>
+      </c>
+      <c r="I37" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="18">
         <v>120</v>
       </c>
-      <c r="K37" s="21">
-        <v>0</v>
-      </c>
-      <c r="N37" s="21">
-        <v>1</v>
-      </c>
-      <c r="O37" s="20">
-        <v>0</v>
-      </c>
-      <c r="P37" s="21">
+      <c r="K37" s="18">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18">
+        <v>1</v>
+      </c>
+      <c r="O37" s="17">
+        <v>0</v>
+      </c>
+      <c r="P37" s="18">
         <v>2</v>
       </c>
-      <c r="Q37" s="21">
-        <v>0</v>
-      </c>
-      <c r="S37" s="20" t="s">
-        <v>94</v>
+      <c r="Q37" s="18">
+        <v>0</v>
       </c>
       <c r="T37" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="U37" s="20">
-        <v>0</v>
-      </c>
-      <c r="V37" s="20">
-        <v>1</v>
-      </c>
-      <c r="W37" s="21">
+      <c r="U37" s="17">
+        <v>0</v>
+      </c>
+      <c r="V37" s="17">
+        <v>1</v>
+      </c>
+      <c r="W37" s="18">
         <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
       <c r="A38" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="20">
         <v>0</v>
@@ -3326,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T38" s="13" t="s">
         <v>92</v>
@@ -3343,7 +3363,7 @@
     </row>
     <row r="39" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
       <c r="A39" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="20">
         <v>0</v>
@@ -3383,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T39" s="13" t="s">
         <v>92</v>
@@ -3400,7 +3420,7 @@
     </row>
     <row r="40" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
       <c r="A40" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="20">
         <v>0</v>
@@ -3439,6 +3459,9 @@
       <c r="Q40" s="21">
         <v>0</v>
       </c>
+      <c r="S40" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="T40" s="13" t="s">
         <v>92</v>
       </c>
@@ -3454,7 +3477,7 @@
     </row>
     <row r="41" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
       <c r="A41" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="20">
         <v>0</v>
@@ -3508,7 +3531,7 @@
     </row>
     <row r="42" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
       <c r="A42" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="20">
         <v>0</v>
@@ -3562,7 +3585,7 @@
     </row>
     <row r="43" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
       <c r="A43" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="20">
         <v>0</v>
@@ -3616,7 +3639,7 @@
     </row>
     <row r="44" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
       <c r="A44" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="20">
         <v>0</v>
@@ -3670,7 +3693,7 @@
     </row>
     <row r="45" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
       <c r="A45" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="20">
         <v>0</v>
@@ -3722,11 +3745,65 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="46" spans="1:23" s="20" customFormat="1" ht="17.649999999999999">
+      <c r="A46" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="20">
+        <v>0</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="F46" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="21">
+        <v>100</v>
+      </c>
+      <c r="H46" s="21">
+        <v>0</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" s="21">
+        <v>120</v>
+      </c>
+      <c r="K46" s="21">
+        <v>0</v>
+      </c>
+      <c r="N46" s="21">
+        <v>1</v>
+      </c>
+      <c r="O46" s="20">
+        <v>0</v>
+      </c>
+      <c r="P46" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="21">
+        <v>0</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U46" s="20">
+        <v>0</v>
+      </c>
+      <c r="V46" s="20">
+        <v>1</v>
+      </c>
+      <c r="W46" s="21">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:X8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:X9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
